--- a/file_exp/recruitment_results.xlsx
+++ b/file_exp/recruitment_results.xlsx
@@ -479,7 +479,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8284451586982724</v>
+        <v>0.8177983125753315</v>
       </c>
     </row>
     <row r="3">
@@ -501,7 +501,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8192419825072886</v>
+        <v>0.8367346938775511</v>
       </c>
     </row>
     <row r="4">
@@ -517,13 +517,13 @@
         <v>94</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9701492537313433</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9701492537313433</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="F4" t="n">
-        <v>0.953012714206744</v>
+        <v>0.9452736318407959</v>
       </c>
     </row>
   </sheetData>
